--- a/quan.java/config/excel/QuestTargetConfig.xlsx
+++ b/quan.java/config/excel/QuestTargetConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\config\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\quan\quan.java\config\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F095A241-D8DA-4C03-A93D-56205866AD5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B80D15-FF76-48D6-9D76-B6BFCC897816}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>任务目标1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.30.00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,23 +376,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -392,12 +403,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
